--- a/biology/Médecine/Veine_fémorale_profonde/Veine_fémorale_profonde.xlsx
+++ b/biology/Médecine/Veine_fémorale_profonde/Veine_fémorale_profonde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Veine_f%C3%A9morale_profonde</t>
+          <t>Veine_fémorale_profonde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine fémorale profonde est une grosse veine profonde du membre inférieur située dans la cuisse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Veine_f%C3%A9morale_profonde</t>
+          <t>Veine_fémorale_profonde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine fémorale profonde est formée par la convergence des veines circonflexes fémorales médiales et latérales, des veines du muscle quadriceps fémoral et des veines perforantes de la cuisse satellites des artères perforantes de la cuisse.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Veine_f%C3%A9morale_profonde</t>
+          <t>Veine_fémorale_profonde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine fémorale profonde a un tronc court qui se situe en arrière du plan de bifurcation formé par l'artère fémorale et l'artère profonde de la cuisse.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Veine_f%C3%A9morale_profonde</t>
+          <t>Veine_fémorale_profonde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine fémorale profonde se jette dans la veine fémorale à environ 6 cm sous le ligament inguinal.
 Elle possède de nombreuses anastomoses.
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Veine_f%C3%A9morale_profonde</t>
+          <t>Veine_fémorale_profonde</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La veine fémorale profonde est un site fréquent de thrombose veineuse [1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La veine fémorale profonde est un site fréquent de thrombose veineuse .
 </t>
         </is>
       </c>
